--- a/list_of_stock_exchanges.xlsx
+++ b/list_of_stock_exchanges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattnicholoff/python_projects/map_of_stock_exchanges/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B19F717-1269-F440-A622-2B9ABAF06DB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86923542-80A1-094D-8D2C-D8CD1B829EF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{427E6FD3-60CF-4245-9F97-6401E2137257}"/>
+    <workbookView xWindow="1720" yWindow="2180" windowWidth="24420" windowHeight="12220" xr2:uid="{427E6FD3-60CF-4245-9F97-6401E2137257}"/>
   </bookViews>
   <sheets>
     <sheet name="Exchanges" sheetId="1" r:id="rId1"/>
@@ -832,7 +832,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
